--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/TOC_School_IngestionFile_Without_Non_MandatoryFields.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/TOC_School_IngestionFile_Without_Non_MandatoryFields.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ram.sin\git_selenium\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Program Title</t>
   </si>
@@ -44,15 +44,9 @@
     <t>Country</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
-    <t>UP</t>
-  </si>
-  <si>
     <t>Market - Province (INTL)</t>
   </si>
   <si>
@@ -147,6 +141,9 @@
   </si>
   <si>
     <t>School_Product TOC_10thJuly</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
   </si>
 </sst>
 </file>
@@ -537,7 +534,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,36 +578,34 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -618,7 +613,7 @@
     </row>
     <row r="8" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -626,76 +621,76 @@
     </row>
     <row r="9" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="M12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -705,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -714,16 +709,16 @@
         <v>5</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="J13" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="3"/>
@@ -739,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
@@ -748,16 +743,16 @@
         <v>10</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="3"/>
